--- a/company_email_list.xlsx
+++ b/company_email_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t xml:space="preserve">Sr. No</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t xml:space="preserve">contact@imageonline.co.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexiPrint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact@flexiprint.co.in</t>
   </si>
 </sst>
 </file>
@@ -86,11 +92,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -112,12 +119,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,16 +178,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -298,170 +322,181 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="60.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="65.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="60.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -479,6 +514,7 @@
     <hyperlink ref="C12" r:id="rId11" display="test5@gmail.com"/>
     <hyperlink ref="C13" r:id="rId12" display="contact@quixilinx.com"/>
     <hyperlink ref="C14" r:id="rId13" display="contact@imageonline.co.in"/>
+    <hyperlink ref="C15" r:id="rId14" display="contact@flexiprint.co.in"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
